--- a/NEW_alignment/4f2.xlsx
+++ b/NEW_alignment/4f2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scher\Documents\TMR観察\NEW_alignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDE7F21-C3CF-4D76-87D2-9F8E5AC974E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806A9AFA-ED8E-48F6-B32B-A854A6151EBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{92085838-BC66-4D6F-A883-872C35FAC3D3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{92085838-BC66-4D6F-A883-872C35FAC3D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E54568-95E8-488E-B33D-5063AAA87740}">
   <dimension ref="A1:AQ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1483,7 +1483,7 @@
         <f>VLOOKUP(E4,Sheet1!$A$1:$B$20,2,FALSE)</f>
         <v>-4.5</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="8">
         <f>VLOOKUP(F4,Sheet1!$A$1:$B$20,2,FALSE)</f>
         <v>-0.7</v>
       </c>
@@ -1656,7 +1656,7 @@
         <f t="shared" si="0"/>
         <v>-5.2</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="8">
         <f t="shared" si="0"/>
         <v>-5.2</v>
       </c>
@@ -1829,7 +1829,7 @@
         <f t="shared" si="13"/>
         <v>-0.20000000000000018</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="8">
         <f t="shared" si="13"/>
         <v>6.1000000000000005</v>
       </c>
@@ -1987,7 +1987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B49026-BD6F-4B9E-B906-B65F1E240224}">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>

--- a/NEW_alignment/4f2.xlsx
+++ b/NEW_alignment/4f2.xlsx
@@ -1,33 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scher\Documents\TMR観察\NEW_alignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scher\OneDrive\ドキュメント\git\Ryohei.W\loc\NEW_alignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806A9AFA-ED8E-48F6-B32B-A854A6151EBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7249611D-D409-43D5-A948-3748EFF6E431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{92085838-BC66-4D6F-A883-872C35FAC3D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{92085838-BC66-4D6F-A883-872C35FAC3D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="START" sheetId="1" r:id="rId2"/>
-    <sheet name="END" sheetId="2" r:id="rId3"/>
+    <sheet name="START (2)" sheetId="6" r:id="rId3"/>
+    <sheet name="END" sheetId="2" r:id="rId4"/>
+    <sheet name="END (2)" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="58">
   <si>
     <t>M</t>
     <phoneticPr fontId="2"/>
@@ -295,7 +308,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +368,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -390,7 +411,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -434,6 +455,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -750,6 +774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8A249C-D420-43EB-B453-ACD5C7C34B3D}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -926,10 +951,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E54568-95E8-488E-B33D-5063AAA87740}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AQ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection sqref="A1:AQ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1984,11 +2010,1059 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDBBE5F-A765-40D9-9F99-02F4C61BB85F}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:AQ9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="21" width="4.75" style="2" customWidth="1"/>
+    <col min="22" max="43" width="4.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2">
+        <v>176</v>
+      </c>
+      <c r="C1" s="2">
+        <v>177</v>
+      </c>
+      <c r="D1" s="2">
+        <v>178</v>
+      </c>
+      <c r="E1" s="2">
+        <v>179</v>
+      </c>
+      <c r="F1" s="2">
+        <v>180</v>
+      </c>
+      <c r="G1" s="2">
+        <v>181</v>
+      </c>
+      <c r="H1" s="2">
+        <v>182</v>
+      </c>
+      <c r="I1" s="13">
+        <v>183</v>
+      </c>
+      <c r="J1" s="2">
+        <v>184</v>
+      </c>
+      <c r="K1" s="2">
+        <v>185</v>
+      </c>
+      <c r="L1" s="2">
+        <v>186</v>
+      </c>
+      <c r="M1" s="2">
+        <v>187</v>
+      </c>
+      <c r="N1" s="2">
+        <v>188</v>
+      </c>
+      <c r="O1" s="2">
+        <v>189</v>
+      </c>
+      <c r="P1" s="2">
+        <v>190</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>191</v>
+      </c>
+      <c r="R1" s="2">
+        <v>192</v>
+      </c>
+      <c r="S1" s="2">
+        <v>193</v>
+      </c>
+      <c r="T1" s="2">
+        <v>194</v>
+      </c>
+      <c r="U1" s="2">
+        <v>195</v>
+      </c>
+      <c r="V1" s="2">
+        <v>196</v>
+      </c>
+      <c r="W1" s="2">
+        <v>197</v>
+      </c>
+      <c r="X1" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>199</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>200</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>201</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>202</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>203</v>
+      </c>
+      <c r="AD1" s="14">
+        <v>204</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>206</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>207</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>208</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>209</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>214</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>215</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>216</v>
+      </c>
+      <c r="AQ1" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2">
+        <v>177</v>
+      </c>
+      <c r="C2" s="2">
+        <v>178</v>
+      </c>
+      <c r="D2" s="2">
+        <v>179</v>
+      </c>
+      <c r="E2" s="2">
+        <v>180</v>
+      </c>
+      <c r="F2" s="2">
+        <v>181</v>
+      </c>
+      <c r="G2" s="2">
+        <v>182</v>
+      </c>
+      <c r="H2" s="2">
+        <v>183</v>
+      </c>
+      <c r="I2" s="13">
+        <v>184</v>
+      </c>
+      <c r="J2" s="2">
+        <v>185</v>
+      </c>
+      <c r="K2" s="2">
+        <v>186</v>
+      </c>
+      <c r="L2" s="2">
+        <v>187</v>
+      </c>
+      <c r="M2" s="2">
+        <v>188</v>
+      </c>
+      <c r="N2" s="2">
+        <v>189</v>
+      </c>
+      <c r="O2" s="2">
+        <v>190</v>
+      </c>
+      <c r="P2" s="2">
+        <v>191</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>192</v>
+      </c>
+      <c r="R2" s="2">
+        <v>193</v>
+      </c>
+      <c r="S2" s="2">
+        <v>194</v>
+      </c>
+      <c r="T2" s="2">
+        <v>195</v>
+      </c>
+      <c r="U2" s="2">
+        <v>196</v>
+      </c>
+      <c r="V2" s="2">
+        <v>197</v>
+      </c>
+      <c r="W2" s="2">
+        <v>198</v>
+      </c>
+      <c r="X2" s="2">
+        <v>199</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>200</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>201</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>202</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>203</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>204</v>
+      </c>
+      <c r="AD2" s="14">
+        <v>205</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>206</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>207</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>208</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>209</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>210</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>211</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>214</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>215</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>216</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>217</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-20</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-19</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-18</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-17</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-16</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-15</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-14</v>
+      </c>
+      <c r="I3" s="13">
+        <v>-13</v>
+      </c>
+      <c r="J3" s="2">
+        <v>-12</v>
+      </c>
+      <c r="K3" s="2">
+        <v>-11</v>
+      </c>
+      <c r="L3" s="2">
+        <v>-10</v>
+      </c>
+      <c r="M3" s="2">
+        <v>-9</v>
+      </c>
+      <c r="N3" s="2">
+        <v>-8</v>
+      </c>
+      <c r="O3" s="2">
+        <v>-7</v>
+      </c>
+      <c r="P3" s="2">
+        <v>-6</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>-5</v>
+      </c>
+      <c r="R3" s="2">
+        <v>-4</v>
+      </c>
+      <c r="S3" s="2">
+        <v>-3</v>
+      </c>
+      <c r="T3" s="2">
+        <v>-2</v>
+      </c>
+      <c r="U3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1</v>
+      </c>
+      <c r="X3" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>7</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>8</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>9</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>10</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>11</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>12</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>13</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>14</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>15</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>16</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>17</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>18</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>19</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2">
+        <f>VLOOKUP(B4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="C5" s="2">
+        <f>VLOOKUP(C4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.9</v>
+      </c>
+      <c r="D5" s="2">
+        <f>VLOOKUP(D4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="E5" s="2">
+        <f>VLOOKUP(E4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-4.5</v>
+      </c>
+      <c r="F5" s="8">
+        <f>VLOOKUP(F4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.7</v>
+      </c>
+      <c r="G5" s="8">
+        <f>VLOOKUP(G4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-4.5</v>
+      </c>
+      <c r="H5" s="8">
+        <f>VLOOKUP(H4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.9</v>
+      </c>
+      <c r="I5" s="8">
+        <f>VLOOKUP(I4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>1.8</v>
+      </c>
+      <c r="J5" s="8">
+        <f>VLOOKUP(J4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="K5" s="8">
+        <f>VLOOKUP(K4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="L5" s="8">
+        <f>VLOOKUP(L4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="M5" s="8">
+        <f>VLOOKUP(M4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="N5" s="8">
+        <f>VLOOKUP(N4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-2.8</v>
+      </c>
+      <c r="O5" s="8">
+        <f>VLOOKUP(O4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.9</v>
+      </c>
+      <c r="P5" s="8">
+        <f>VLOOKUP(P4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="Q5" s="8">
+        <f>VLOOKUP(Q4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="R5" s="2">
+        <f>VLOOKUP(R4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.9</v>
+      </c>
+      <c r="S5" s="2">
+        <f>VLOOKUP(S4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="T5" s="2">
+        <f>VLOOKUP(T4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="U5" s="2">
+        <f>VLOOKUP(U4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>1.9</v>
+      </c>
+      <c r="V5" s="2">
+        <f>VLOOKUP(V4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="W5" s="2">
+        <f>VLOOKUP(W4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>1.8</v>
+      </c>
+      <c r="X5" s="2">
+        <f>VLOOKUP(X4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="Y5" s="8">
+        <f>VLOOKUP(Y4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>1.8</v>
+      </c>
+      <c r="Z5" s="8">
+        <f>VLOOKUP(Z4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="AA5" s="8">
+        <f>VLOOKUP(AA4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="AB5" s="8">
+        <f>VLOOKUP(AB4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="AC5" s="8">
+        <f>VLOOKUP(AC4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="AD5" s="8">
+        <f>VLOOKUP(AD4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="AE5" s="8">
+        <f>VLOOKUP(AE4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-4.5</v>
+      </c>
+      <c r="AF5" s="8">
+        <f>VLOOKUP(AF4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>1.8</v>
+      </c>
+      <c r="AG5" s="8">
+        <f>VLOOKUP(AG4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-1.6</v>
+      </c>
+      <c r="AH5" s="8">
+        <f>VLOOKUP(AH4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-4.5</v>
+      </c>
+      <c r="AI5" s="8">
+        <f>VLOOKUP(AI4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AJ5" s="2">
+        <f>VLOOKUP(AJ4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-4.5</v>
+      </c>
+      <c r="AK5" s="2">
+        <f>VLOOKUP(AK4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-3.5</v>
+      </c>
+      <c r="AL5" s="2">
+        <f>VLOOKUP(AL4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="AM5" s="2">
+        <f>VLOOKUP(AM4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-1.6</v>
+      </c>
+      <c r="AN5" s="2">
+        <f>VLOOKUP(AN4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>1.8</v>
+      </c>
+      <c r="AO5" s="2">
+        <f>VLOOKUP(AO4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-3.5</v>
+      </c>
+      <c r="AP5" s="2">
+        <f>VLOOKUP(AP4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-3.9</v>
+      </c>
+      <c r="AQ5" s="2">
+        <f>VLOOKUP(AQ4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <f>AVERAGE(B5:D5)</f>
+        <v>0.96666666666666679</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" ref="E6:AQ6" si="0">AVERAGE(C5:E5)</f>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.33333333333333326</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>-3.2333333333333329</v>
+      </c>
+      <c r="H6" s="15">
+        <f t="shared" si="0"/>
+        <v>-2.0333333333333337</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5666666666666667</v>
+      </c>
+      <c r="K6" s="15">
+        <f t="shared" si="0"/>
+        <v>3.1333333333333329</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="0"/>
+        <v>3.7999999999999994</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="0"/>
+        <v>3.7999999999999994</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333361E-2</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7666666666666666</v>
+      </c>
+      <c r="V6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7666666666666666</v>
+      </c>
+      <c r="W6" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4999999999999996</v>
+      </c>
+      <c r="X6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7333333333333332</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8666666666666665</v>
+      </c>
+      <c r="AA6" s="3">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="AB6" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3</v>
+      </c>
+      <c r="AC6" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3999999999999995</v>
+      </c>
+      <c r="AD6" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3999999999999995</v>
+      </c>
+      <c r="AE6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3999999999999997</v>
+      </c>
+      <c r="AF6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="AG6" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.4333333333333336</v>
+      </c>
+      <c r="AH6" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.4333333333333333</v>
+      </c>
+      <c r="AI6" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.2</v>
+      </c>
+      <c r="AJ6" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.1666666666666665</v>
+      </c>
+      <c r="AK6" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.8333333333333333</v>
+      </c>
+      <c r="AL6" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.4000000000000001</v>
+      </c>
+      <c r="AM6" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.4333333333333334</v>
+      </c>
+      <c r="AN6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AO6" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.0999999999999999</v>
+      </c>
+      <c r="AP6" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.8666666666666665</v>
+      </c>
+      <c r="AQ6" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.7666666666666671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <f>G6-D6</f>
+        <v>-4.1999999999999993</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" ref="H7:AQ7" si="1">H6-E6</f>
+        <v>-1.6333333333333337</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.86666666666666692</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" si="1"/>
+        <v>5.1666666666666661</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="1"/>
+        <v>2.2333333333333325</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.533333333333333</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="1"/>
+        <v>-3.7666666666666662</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="1"/>
+        <v>-3.7666666666666662</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.7666666666666665</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="V7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="W7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666661</v>
+      </c>
+      <c r="X7" s="3">
+        <f t="shared" si="1"/>
+        <v>-3.3333333333333437E-2</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.7</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.63333333333333308</v>
+      </c>
+      <c r="AA7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AB7" s="3">
+        <f t="shared" si="1"/>
+        <v>3.2333333333333334</v>
+      </c>
+      <c r="AC7" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5333333333333332</v>
+      </c>
+      <c r="AD7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="AE7" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.9000000000000004</v>
+      </c>
+      <c r="AF7" s="3">
+        <f t="shared" si="1"/>
+        <v>-3.8999999999999995</v>
+      </c>
+      <c r="AG7" s="3">
+        <f t="shared" si="1"/>
+        <v>-5.833333333333333</v>
+      </c>
+      <c r="AH7" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.833333333333333</v>
+      </c>
+      <c r="AI7" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.7000000000000002</v>
+      </c>
+      <c r="AJ7" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.73333333333333295</v>
+      </c>
+      <c r="AK7" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="AL7" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="AM7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7333333333333332</v>
+      </c>
+      <c r="AN7" s="3">
+        <f t="shared" si="1"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="AO7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000027</v>
+      </c>
+      <c r="AP7" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.4333333333333331</v>
+      </c>
+      <c r="AQ7" s="3">
+        <f t="shared" si="1"/>
+        <v>-4.1000000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43">
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:43">
+      <c r="K9" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B49026-BD6F-4B9E-B906-B65F1E240224}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2331,10 +3405,10 @@
       <c r="P4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="S4" s="7" t="s">
@@ -2375,6 +3449,767 @@
       </c>
       <c r="AE4" s="2" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2">
+        <f>VLOOKUP(B4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>1.9</v>
+      </c>
+      <c r="C5" s="2">
+        <f>VLOOKUP(C4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-3.9</v>
+      </c>
+      <c r="D5" s="2">
+        <f>VLOOKUP(D4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>1.8</v>
+      </c>
+      <c r="E5" s="2">
+        <f>VLOOKUP(E4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="F5" s="2">
+        <f>VLOOKUP(F4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>1.9</v>
+      </c>
+      <c r="G5" s="2">
+        <f>VLOOKUP(G4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H5" s="2">
+        <f>VLOOKUP(H4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="I5" s="2">
+        <f>VLOOKUP(I4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>1.8</v>
+      </c>
+      <c r="J5" s="2">
+        <f>VLOOKUP(J4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>2.5</v>
+      </c>
+      <c r="K5" s="2">
+        <f>VLOOKUP(K4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-2.8</v>
+      </c>
+      <c r="L5" s="2">
+        <f>VLOOKUP(L4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="M5" s="8">
+        <f>VLOOKUP(M4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="N5" s="8">
+        <f>VLOOKUP(N4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-3.5</v>
+      </c>
+      <c r="O5" s="8">
+        <f>VLOOKUP(O4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-2.8</v>
+      </c>
+      <c r="P5" s="8">
+        <f>VLOOKUP(P4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>1.9</v>
+      </c>
+      <c r="Q5" s="8">
+        <f>VLOOKUP(Q4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-2.8</v>
+      </c>
+      <c r="R5" s="8">
+        <f>VLOOKUP(R4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-2.8</v>
+      </c>
+      <c r="S5" s="8">
+        <f>VLOOKUP(S4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-3.5</v>
+      </c>
+      <c r="T5" s="8">
+        <f>VLOOKUP(T4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.8</v>
+      </c>
+      <c r="U5" s="8">
+        <f>VLOOKUP(U4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.7</v>
+      </c>
+      <c r="V5" s="8">
+        <f>VLOOKUP(V4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="W5" s="8">
+        <f>VLOOKUP(W4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.8</v>
+      </c>
+      <c r="X5" s="2">
+        <f>VLOOKUP(X4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-3.5</v>
+      </c>
+      <c r="Y5" s="2">
+        <f>VLOOKUP(Y4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-3.5</v>
+      </c>
+      <c r="Z5" s="2">
+        <f>VLOOKUP(Z4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-3.5</v>
+      </c>
+      <c r="AA5" s="2">
+        <f>VLOOKUP(AA4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-3.9</v>
+      </c>
+      <c r="AB5" s="2">
+        <f>VLOOKUP(AB4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.8</v>
+      </c>
+      <c r="AC5" s="2">
+        <f>VLOOKUP(AC4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="AD5" s="2">
+        <f>VLOOKUP(AD4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="AE5" s="2">
+        <f>VLOOKUP(AE4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <f>SUM(B5:C5)</f>
+        <v>-2</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ref="D6:AE6" si="0">SUM(C5:D5)</f>
+        <v>-2.0999999999999996</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>6.1</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="0"/>
+        <v>-6.3</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.89999999999999991</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.89999999999999991</v>
+      </c>
+      <c r="R6" s="8">
+        <f t="shared" si="0"/>
+        <v>-5.6</v>
+      </c>
+      <c r="S6" s="8">
+        <f t="shared" si="0"/>
+        <v>-6.3</v>
+      </c>
+      <c r="T6" s="8">
+        <f t="shared" si="0"/>
+        <v>-4.3</v>
+      </c>
+      <c r="U6" s="8">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="V6" s="8">
+        <f t="shared" si="0"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="W6" s="8">
+        <f t="shared" si="0"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="X6" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.3</v>
+      </c>
+      <c r="Y6" s="2">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="AA6" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.4</v>
+      </c>
+      <c r="AB6" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.7</v>
+      </c>
+      <c r="AC6" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="AD6" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="AE6" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3">
+        <f>-E6+C6</f>
+        <v>-8</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ref="F7:AE7" si="1">-F6+D6</f>
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6999999999999997</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="1"/>
+        <v>3.3</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="1"/>
+        <v>-8.6000000000000014</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="1"/>
+        <v>14.600000000000001</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="1"/>
+        <v>-5.4</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" si="1"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="S7" s="9">
+        <f t="shared" si="1"/>
+        <v>5.4</v>
+      </c>
+      <c r="T7" s="8">
+        <f t="shared" si="1"/>
+        <v>-1.2999999999999998</v>
+      </c>
+      <c r="U7" s="8">
+        <f t="shared" si="1"/>
+        <v>-4.8</v>
+      </c>
+      <c r="V7" s="8">
+        <f t="shared" si="1"/>
+        <v>-3.1999999999999997</v>
+      </c>
+      <c r="W7" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="X7" s="3">
+        <f t="shared" si="1"/>
+        <v>3.1999999999999997</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="1"/>
+        <v>5.8</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" si="1"/>
+        <v>2.7</v>
+      </c>
+      <c r="AA7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="AB7" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="AC7" s="3">
+        <f t="shared" si="1"/>
+        <v>-6.2</v>
+      </c>
+      <c r="AD7" s="3">
+        <f t="shared" si="1"/>
+        <v>-8.5</v>
+      </c>
+      <c r="AE7" s="3">
+        <f t="shared" si="1"/>
+        <v>-4.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949C146F-FAD8-4143-A8AC-A422243CD504}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:AE7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="31" width="4.75" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2">
+        <v>288</v>
+      </c>
+      <c r="C1" s="2">
+        <v>289</v>
+      </c>
+      <c r="D1" s="2">
+        <v>290</v>
+      </c>
+      <c r="E1" s="2">
+        <v>291</v>
+      </c>
+      <c r="F1" s="2">
+        <v>292</v>
+      </c>
+      <c r="G1" s="2">
+        <v>293</v>
+      </c>
+      <c r="H1" s="2">
+        <v>294</v>
+      </c>
+      <c r="I1" s="2">
+        <v>295</v>
+      </c>
+      <c r="J1" s="2">
+        <v>296</v>
+      </c>
+      <c r="K1" s="2">
+        <v>297</v>
+      </c>
+      <c r="L1" s="2">
+        <v>298</v>
+      </c>
+      <c r="M1" s="2">
+        <v>299</v>
+      </c>
+      <c r="N1" s="2">
+        <v>300</v>
+      </c>
+      <c r="O1" s="2">
+        <v>301</v>
+      </c>
+      <c r="P1" s="2">
+        <v>302</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>303</v>
+      </c>
+      <c r="R1" s="2">
+        <v>304</v>
+      </c>
+      <c r="S1" s="2">
+        <v>305</v>
+      </c>
+      <c r="T1" s="2">
+        <v>306</v>
+      </c>
+      <c r="U1" s="2">
+        <v>307</v>
+      </c>
+      <c r="V1" s="2">
+        <v>308</v>
+      </c>
+      <c r="W1" s="2">
+        <v>309</v>
+      </c>
+      <c r="X1" s="2">
+        <v>310</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>311</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>312</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>313</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>314</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>315</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>316</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2">
+        <v>289</v>
+      </c>
+      <c r="C2" s="2">
+        <v>290</v>
+      </c>
+      <c r="D2" s="2">
+        <v>291</v>
+      </c>
+      <c r="E2" s="2">
+        <v>292</v>
+      </c>
+      <c r="F2" s="2">
+        <v>293</v>
+      </c>
+      <c r="G2" s="2">
+        <v>294</v>
+      </c>
+      <c r="H2" s="2">
+        <v>295</v>
+      </c>
+      <c r="I2" s="2">
+        <v>296</v>
+      </c>
+      <c r="J2" s="2">
+        <v>297</v>
+      </c>
+      <c r="K2" s="2">
+        <v>298</v>
+      </c>
+      <c r="L2" s="2">
+        <v>299</v>
+      </c>
+      <c r="M2" s="2">
+        <v>300</v>
+      </c>
+      <c r="N2" s="2">
+        <v>301</v>
+      </c>
+      <c r="O2" s="2">
+        <v>302</v>
+      </c>
+      <c r="P2" s="2">
+        <v>303</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>304</v>
+      </c>
+      <c r="R2" s="2">
+        <v>305</v>
+      </c>
+      <c r="S2" s="2">
+        <v>306</v>
+      </c>
+      <c r="T2" s="2">
+        <v>307</v>
+      </c>
+      <c r="U2" s="2">
+        <v>308</v>
+      </c>
+      <c r="V2" s="2">
+        <v>309</v>
+      </c>
+      <c r="W2" s="2">
+        <v>310</v>
+      </c>
+      <c r="X2" s="2">
+        <v>311</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>312</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>313</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>314</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>315</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>316</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>317</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-6</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-3</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2">
+        <v>3</v>
+      </c>
+      <c r="O3" s="2">
+        <v>4</v>
+      </c>
+      <c r="P3" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>6</v>
+      </c>
+      <c r="R3" s="2">
+        <v>7</v>
+      </c>
+      <c r="S3" s="2">
+        <v>8</v>
+      </c>
+      <c r="T3" s="2">
+        <v>9</v>
+      </c>
+      <c r="U3" s="2">
+        <v>10</v>
+      </c>
+      <c r="V3" s="2">
+        <v>11</v>
+      </c>
+      <c r="W3" s="2">
+        <v>12</v>
+      </c>
+      <c r="X3" s="2">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>14</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>18</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:31">

--- a/NEW_alignment/4f2.xlsx
+++ b/NEW_alignment/4f2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scher\OneDrive\ドキュメント\git\Ryohei.W\loc\NEW_alignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scher\Documents\TMR観察\NEW_alignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7249611D-D409-43D5-A948-3748EFF6E431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3239D208-8D2C-4EE1-A73F-009C61B05792}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{92085838-BC66-4D6F-A883-872C35FAC3D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{92085838-BC66-4D6F-A883-872C35FAC3D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -18,29 +18,19 @@
     <sheet name="START (2)" sheetId="6" r:id="rId3"/>
     <sheet name="END" sheetId="2" r:id="rId4"/>
     <sheet name="END (2)" sheetId="7" r:id="rId5"/>
+    <sheet name="NMO_START" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="59">
   <si>
     <t>M</t>
     <phoneticPr fontId="2"/>
@@ -301,6 +291,10 @@
   </si>
   <si>
     <t>K</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hy_N</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2014,7 +2008,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AQ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -4576,4 +4570,898 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E2EE27-5B25-4487-AD9F-CAF9D2BE1E83}">
+  <dimension ref="A1:AQ8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="21" width="4.75" style="2" customWidth="1"/>
+    <col min="22" max="43" width="4.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2">
+        <v>176</v>
+      </c>
+      <c r="C1" s="2">
+        <v>177</v>
+      </c>
+      <c r="D1" s="2">
+        <v>178</v>
+      </c>
+      <c r="E1" s="2">
+        <v>179</v>
+      </c>
+      <c r="F1" s="2">
+        <v>180</v>
+      </c>
+      <c r="G1" s="2">
+        <v>181</v>
+      </c>
+      <c r="H1" s="2">
+        <v>182</v>
+      </c>
+      <c r="I1" s="13">
+        <v>183</v>
+      </c>
+      <c r="J1" s="2">
+        <v>184</v>
+      </c>
+      <c r="K1" s="2">
+        <v>185</v>
+      </c>
+      <c r="L1" s="2">
+        <v>186</v>
+      </c>
+      <c r="M1" s="2">
+        <v>187</v>
+      </c>
+      <c r="N1" s="2">
+        <v>188</v>
+      </c>
+      <c r="O1" s="2">
+        <v>189</v>
+      </c>
+      <c r="P1" s="2">
+        <v>190</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>191</v>
+      </c>
+      <c r="R1" s="2">
+        <v>192</v>
+      </c>
+      <c r="S1" s="2">
+        <v>193</v>
+      </c>
+      <c r="T1" s="2">
+        <v>194</v>
+      </c>
+      <c r="U1" s="2">
+        <v>195</v>
+      </c>
+      <c r="V1" s="2">
+        <v>196</v>
+      </c>
+      <c r="W1" s="2">
+        <v>197</v>
+      </c>
+      <c r="X1" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>199</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>200</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>201</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>202</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>203</v>
+      </c>
+      <c r="AD1" s="14">
+        <v>204</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>206</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>207</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>208</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>209</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>214</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>215</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>216</v>
+      </c>
+      <c r="AQ1" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2">
+        <v>177</v>
+      </c>
+      <c r="C2" s="2">
+        <v>178</v>
+      </c>
+      <c r="D2" s="2">
+        <v>179</v>
+      </c>
+      <c r="E2" s="2">
+        <v>180</v>
+      </c>
+      <c r="F2" s="2">
+        <v>181</v>
+      </c>
+      <c r="G2" s="2">
+        <v>182</v>
+      </c>
+      <c r="H2" s="2">
+        <v>183</v>
+      </c>
+      <c r="I2" s="13">
+        <v>184</v>
+      </c>
+      <c r="J2" s="2">
+        <v>185</v>
+      </c>
+      <c r="K2" s="2">
+        <v>186</v>
+      </c>
+      <c r="L2" s="2">
+        <v>187</v>
+      </c>
+      <c r="M2" s="2">
+        <v>188</v>
+      </c>
+      <c r="N2" s="2">
+        <v>189</v>
+      </c>
+      <c r="O2" s="2">
+        <v>190</v>
+      </c>
+      <c r="P2" s="2">
+        <v>191</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>192</v>
+      </c>
+      <c r="R2" s="2">
+        <v>193</v>
+      </c>
+      <c r="S2" s="2">
+        <v>194</v>
+      </c>
+      <c r="T2" s="2">
+        <v>195</v>
+      </c>
+      <c r="U2" s="2">
+        <v>196</v>
+      </c>
+      <c r="V2" s="2">
+        <v>197</v>
+      </c>
+      <c r="W2" s="2">
+        <v>198</v>
+      </c>
+      <c r="X2" s="2">
+        <v>199</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>200</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>201</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>202</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>203</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>204</v>
+      </c>
+      <c r="AD2" s="14">
+        <v>205</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>206</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>207</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>208</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>209</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>210</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>211</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>214</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>215</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>216</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>217</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-20</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-19</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-18</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-17</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-16</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-15</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-14</v>
+      </c>
+      <c r="I3" s="13">
+        <v>-13</v>
+      </c>
+      <c r="J3" s="2">
+        <v>-12</v>
+      </c>
+      <c r="K3" s="2">
+        <v>-11</v>
+      </c>
+      <c r="L3" s="2">
+        <v>-10</v>
+      </c>
+      <c r="M3" s="2">
+        <v>-9</v>
+      </c>
+      <c r="N3" s="2">
+        <v>-8</v>
+      </c>
+      <c r="O3" s="2">
+        <v>-7</v>
+      </c>
+      <c r="P3" s="2">
+        <v>-6</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>-5</v>
+      </c>
+      <c r="R3" s="2">
+        <v>-4</v>
+      </c>
+      <c r="S3" s="2">
+        <v>-3</v>
+      </c>
+      <c r="T3" s="2">
+        <v>-2</v>
+      </c>
+      <c r="U3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1</v>
+      </c>
+      <c r="X3" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>7</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>8</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>9</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>10</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>11</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>12</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>13</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>14</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>15</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>16</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>17</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>18</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>19</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2">
+        <f>VLOOKUP(B4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="C5" s="2">
+        <f>VLOOKUP(C4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.9</v>
+      </c>
+      <c r="D5" s="2">
+        <f>VLOOKUP(D4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="E5" s="2">
+        <f>VLOOKUP(E4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-4.5</v>
+      </c>
+      <c r="F5" s="8">
+        <f>VLOOKUP(F4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.7</v>
+      </c>
+      <c r="G5" s="8">
+        <f>VLOOKUP(G4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-4.5</v>
+      </c>
+      <c r="H5" s="8">
+        <f>VLOOKUP(H4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.9</v>
+      </c>
+      <c r="I5" s="8">
+        <f>VLOOKUP(I4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>1.8</v>
+      </c>
+      <c r="J5" s="8">
+        <f>VLOOKUP(J4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="K5" s="8">
+        <f>VLOOKUP(K4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="L5" s="8">
+        <f>VLOOKUP(L4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="M5" s="8">
+        <f>VLOOKUP(M4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="N5" s="8">
+        <f>VLOOKUP(N4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-2.8</v>
+      </c>
+      <c r="O5" s="8">
+        <f>VLOOKUP(O4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.9</v>
+      </c>
+      <c r="P5" s="8">
+        <f>VLOOKUP(P4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="Q5" s="8">
+        <f>VLOOKUP(Q4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="R5" s="2">
+        <f>VLOOKUP(R4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.9</v>
+      </c>
+      <c r="S5" s="2">
+        <f>VLOOKUP(S4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="T5" s="2">
+        <f>VLOOKUP(T4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="U5" s="2">
+        <f>VLOOKUP(U4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>1.9</v>
+      </c>
+      <c r="V5" s="2">
+        <f>VLOOKUP(V4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="W5" s="2">
+        <f>VLOOKUP(W4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>1.8</v>
+      </c>
+      <c r="X5" s="2">
+        <f>VLOOKUP(X4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="Y5" s="8">
+        <f>VLOOKUP(Y4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>1.8</v>
+      </c>
+      <c r="Z5" s="8">
+        <f>VLOOKUP(Z4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="AA5" s="8">
+        <f>VLOOKUP(AA4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="AB5" s="8">
+        <f>VLOOKUP(AB4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="AC5" s="8">
+        <f>VLOOKUP(AC4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="AD5" s="8">
+        <f>VLOOKUP(AD4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="AE5" s="8">
+        <f>VLOOKUP(AE4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-4.5</v>
+      </c>
+      <c r="AF5" s="8">
+        <f>VLOOKUP(AF4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>1.8</v>
+      </c>
+      <c r="AG5" s="8">
+        <f>VLOOKUP(AG4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-1.6</v>
+      </c>
+      <c r="AH5" s="8">
+        <f>VLOOKUP(AH4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-4.5</v>
+      </c>
+      <c r="AI5" s="8">
+        <f>VLOOKUP(AI4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AJ5" s="2">
+        <f>VLOOKUP(AJ4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-4.5</v>
+      </c>
+      <c r="AK5" s="2">
+        <f>VLOOKUP(AK4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-3.5</v>
+      </c>
+      <c r="AL5" s="2">
+        <f>VLOOKUP(AL4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="AM5" s="2">
+        <f>VLOOKUP(AM4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-1.6</v>
+      </c>
+      <c r="AN5" s="2">
+        <f>VLOOKUP(AN4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>1.8</v>
+      </c>
+      <c r="AO5" s="2">
+        <f>VLOOKUP(AO4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-3.5</v>
+      </c>
+      <c r="AP5" s="2">
+        <f>VLOOKUP(AP4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-3.9</v>
+      </c>
+      <c r="AQ5" s="2">
+        <f>VLOOKUP(AQ4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="3">
+        <f>SUM(B5:C5)/2</f>
+        <v>-0.65</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" ref="C6:AP6" si="0">SUM(C5:D5)/2</f>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.14999999999999991</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.6</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.6</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.7</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.8499999999999999</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.45</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.65</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.45</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="V6" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="W6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="X6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="AA6" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AB6" s="3">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="AC6" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AD6" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.14999999999999991</v>
+      </c>
+      <c r="AE6" s="3">
+        <f t="shared" si="0"/>
+        <v>-1.35</v>
+      </c>
+      <c r="AF6" s="3">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="AG6" s="3">
+        <f t="shared" si="0"/>
+        <v>-3.05</v>
+      </c>
+      <c r="AH6" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="AI6" s="3">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ6" s="3">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="AK6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AL6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="AM6" s="3">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="AN6" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.85</v>
+      </c>
+      <c r="AO6" s="3">
+        <f t="shared" si="0"/>
+        <v>-3.7</v>
+      </c>
+      <c r="AP6" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:43">
+      <c r="K8" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>